--- a/data/output/FV2504_FV2410/UTILMD/55013.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14840" uniqueCount="1268">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14861" uniqueCount="1268">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4068,6 +4068,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U932" totalsRowShown="0">
+  <autoFilter ref="A1:U932"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4357,7 +4387,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -42272,5 +42305,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55013.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17863" uniqueCount="2179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17733" uniqueCount="2179">
   <si>
     <t>#</t>
   </si>
@@ -7792,48 +7792,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V13" s="5"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
@@ -7863,9 +7861,7 @@
         <v>959</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
         <v>24</v>
       </c>
@@ -7919,9 +7915,7 @@
       <c r="K15" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
@@ -7975,9 +7969,7 @@
         <v>959</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
@@ -8004,44 +7996,42 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
@@ -8067,9 +8057,7 @@
         <v>958</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
@@ -8121,9 +8109,7 @@
         <v>959</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="5" t="s">
         <v>25</v>
       </c>
@@ -8179,9 +8165,7 @@
         <v>959</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
@@ -8237,9 +8221,7 @@
         <v>959</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
         <v>25</v>
       </c>
@@ -8295,9 +8277,7 @@
         <v>959</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
@@ -8324,44 +8304,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -8387,9 +8365,7 @@
         <v>958</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
@@ -8441,9 +8417,7 @@
         <v>959</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
@@ -8499,9 +8473,7 @@
         <v>959</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
@@ -8528,52 +8500,50 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -8605,9 +8575,7 @@
       <c r="K28" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -8665,9 +8633,7 @@
         <v>963</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
@@ -8723,9 +8689,7 @@
         <v>963</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>27</v>
       </c>
@@ -8779,9 +8743,7 @@
         <v>963</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
       </c>
@@ -8835,9 +8797,7 @@
         <v>963</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>27</v>
       </c>
@@ -8891,9 +8851,7 @@
         <v>963</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>27</v>
       </c>
@@ -8920,44 +8878,42 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V34" s="5"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
@@ -8983,9 +8939,7 @@
         <v>958</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -9037,9 +8991,7 @@
         <v>959</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -9095,9 +9047,7 @@
         <v>959</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>28</v>
       </c>
@@ -9153,9 +9103,7 @@
         <v>959</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>28</v>
       </c>
@@ -9211,9 +9159,7 @@
         <v>959</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>28</v>
       </c>
@@ -9240,44 +9186,42 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -9303,9 +9247,7 @@
         <v>958</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>29</v>
       </c>
@@ -9357,9 +9299,7 @@
         <v>959</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>29</v>
       </c>
@@ -9415,9 +9355,7 @@
         <v>959</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>29</v>
       </c>
@@ -11844,46 +11782,44 @@
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="K97" s="5" t="s">
+      <c r="K97" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M97" s="5" t="s">
+      <c r="L97" s="4"/>
+      <c r="M97" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5" t="s">
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="V97" s="5" t="s">
+      <c r="V97" s="2" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -12692,44 +12628,42 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M113" s="5" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V113" s="5"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -15150,46 +15084,44 @@
       <c r="V170" s="9"/>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5" t="s">
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="K171" s="5" t="s">
+      <c r="K171" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M171" s="5" t="s">
+      <c r="L171" s="4"/>
+      <c r="M171" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5" t="s">
+      <c r="O171" s="2"/>
+      <c r="P171" s="2"/>
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+      <c r="S171" s="2"/>
+      <c r="T171" s="2"/>
+      <c r="U171" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="V171" s="5" t="s">
+      <c r="V171" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -15672,44 +15604,42 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -16071,9 +16001,7 @@
         <v>959</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>58</v>
       </c>
@@ -16127,9 +16055,7 @@
         <v>959</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>58</v>
       </c>
@@ -17780,46 +17706,44 @@
       <c r="V230" s="5"/>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>1483</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="K231" s="5" t="s">
+      <c r="K231" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="L231" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M231" s="5" t="s">
+      <c r="L231" s="4"/>
+      <c r="M231" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N231" s="5" t="s">
+      <c r="N231" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O231" s="5"/>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="V231" s="5" t="s">
+      <c r="V231" s="2" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -18056,46 +17980,44 @@
       <c r="V236" s="5"/>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="K237" s="5" t="s">
+      <c r="K237" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="L237" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M237" s="5" t="s">
+      <c r="L237" s="4"/>
+      <c r="M237" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N237" s="5" t="s">
+      <c r="N237" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="V237" s="5" t="s">
+      <c r="V237" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -18235,9 +18157,7 @@
         <v>959</v>
       </c>
       <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L240" s="4"/>
       <c r="M240" s="5" t="s">
         <v>69</v>
       </c>
@@ -18413,9 +18333,7 @@
       <c r="K243" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="L243" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>69</v>
       </c>
@@ -20406,44 +20324,42 @@
       <c r="V286" s="5"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
-      <c r="F287" s="5"/>
-      <c r="G287" s="5"/>
-      <c r="H287" s="5"/>
-      <c r="I287" s="5"/>
-      <c r="J287" s="5" t="s">
+      <c r="C287" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K287" s="5"/>
-      <c r="L287" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M287" s="5" t="s">
+      <c r="K287" s="2"/>
+      <c r="L287" s="4"/>
+      <c r="M287" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N287" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O287" s="5"/>
-      <c r="P287" s="5"/>
-      <c r="Q287" s="5"/>
-      <c r="R287" s="5"/>
-      <c r="S287" s="5"/>
-      <c r="T287" s="5"/>
-      <c r="U287" s="5" t="s">
+      <c r="N287" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O287" s="2"/>
+      <c r="P287" s="2"/>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="2"/>
+      <c r="S287" s="2"/>
+      <c r="T287" s="2"/>
+      <c r="U287" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V287" s="5"/>
+      <c r="V287" s="2"/>
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="5" t="s">
@@ -20689,9 +20605,7 @@
         <v>959</v>
       </c>
       <c r="K292" s="5"/>
-      <c r="L292" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L292" s="4"/>
       <c r="M292" s="5" t="s">
         <v>77</v>
       </c>
@@ -20745,9 +20659,7 @@
         <v>959</v>
       </c>
       <c r="K293" s="5"/>
-      <c r="L293" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L293" s="4"/>
       <c r="M293" s="5" t="s">
         <v>77</v>
       </c>
@@ -20801,9 +20713,7 @@
         <v>959</v>
       </c>
       <c r="K294" s="5"/>
-      <c r="L294" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L294" s="4"/>
       <c r="M294" s="5" t="s">
         <v>77</v>
       </c>
@@ -21484,44 +21394,42 @@
       <c r="V310" s="5"/>
     </row>
     <row r="311" spans="1:22">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="2" t="s">
         <v>1560</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B311" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C311" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D311" s="5"/>
-      <c r="E311" s="5"/>
-      <c r="F311" s="5"/>
-      <c r="G311" s="5"/>
-      <c r="H311" s="5"/>
-      <c r="I311" s="5"/>
-      <c r="J311" s="5" t="s">
+      <c r="C311" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
+      <c r="H311" s="2"/>
+      <c r="I311" s="2"/>
+      <c r="J311" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K311" s="5"/>
-      <c r="L311" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M311" s="5" t="s">
+      <c r="K311" s="2"/>
+      <c r="L311" s="4"/>
+      <c r="M311" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N311" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O311" s="5"/>
-      <c r="P311" s="5"/>
-      <c r="Q311" s="5"/>
-      <c r="R311" s="5"/>
-      <c r="S311" s="5"/>
-      <c r="T311" s="5"/>
-      <c r="U311" s="5" t="s">
+      <c r="N311" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O311" s="2"/>
+      <c r="P311" s="2"/>
+      <c r="Q311" s="2"/>
+      <c r="R311" s="2"/>
+      <c r="S311" s="2"/>
+      <c r="T311" s="2"/>
+      <c r="U311" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V311" s="5"/>
+      <c r="V311" s="2"/>
     </row>
     <row r="312" spans="1:22">
       <c r="A312" s="5" t="s">
@@ -21659,9 +21567,7 @@
         <v>959</v>
       </c>
       <c r="K314" s="5"/>
-      <c r="L314" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L314" s="4"/>
       <c r="M314" s="5" t="s">
         <v>81</v>
       </c>
@@ -22485,9 +22391,7 @@
         <v>959</v>
       </c>
       <c r="K332" s="5"/>
-      <c r="L332" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L332" s="4"/>
       <c r="M332" s="5" t="s">
         <v>85</v>
       </c>
@@ -23304,44 +23208,42 @@
       <c r="V351" s="5"/>
     </row>
     <row r="352" spans="1:22">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C352" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
-      <c r="F352" s="5"/>
-      <c r="G352" s="5"/>
-      <c r="H352" s="5"/>
-      <c r="I352" s="5"/>
-      <c r="J352" s="5" t="s">
+      <c r="C352" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K352" s="5"/>
-      <c r="L352" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M352" s="5" t="s">
+      <c r="K352" s="2"/>
+      <c r="L352" s="4"/>
+      <c r="M352" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N352" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O352" s="5"/>
-      <c r="P352" s="5"/>
-      <c r="Q352" s="5"/>
-      <c r="R352" s="5"/>
-      <c r="S352" s="5"/>
-      <c r="T352" s="5"/>
-      <c r="U352" s="5" t="s">
+      <c r="N352" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O352" s="2"/>
+      <c r="P352" s="2"/>
+      <c r="Q352" s="2"/>
+      <c r="R352" s="2"/>
+      <c r="S352" s="2"/>
+      <c r="T352" s="2"/>
+      <c r="U352" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V352" s="5"/>
+      <c r="V352" s="2"/>
     </row>
     <row r="353" spans="1:22">
       <c r="A353" s="5" t="s">
@@ -23539,9 +23441,7 @@
         <v>959</v>
       </c>
       <c r="K356" s="5"/>
-      <c r="L356" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L356" s="4"/>
       <c r="M356" s="5" t="s">
         <v>91</v>
       </c>
@@ -31608,46 +31508,44 @@
       <c r="V552" s="5"/>
     </row>
     <row r="553" spans="1:22">
-      <c r="A553" s="5" t="s">
+      <c r="A553" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="B553" s="5" t="s">
+      <c r="B553" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C553" s="5" t="s">
+      <c r="C553" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D553" s="5"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="5"/>
-      <c r="G553" s="5"/>
-      <c r="H553" s="5"/>
-      <c r="I553" s="5"/>
-      <c r="J553" s="5" t="s">
+      <c r="D553" s="2"/>
+      <c r="E553" s="2"/>
+      <c r="F553" s="2"/>
+      <c r="G553" s="2"/>
+      <c r="H553" s="2"/>
+      <c r="I553" s="2"/>
+      <c r="J553" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="K553" s="5" t="s">
+      <c r="K553" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="L553" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M553" s="5" t="s">
+      <c r="L553" s="4"/>
+      <c r="M553" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="N553" s="5" t="s">
+      <c r="N553" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="O553" s="5"/>
-      <c r="P553" s="5"/>
-      <c r="Q553" s="5"/>
-      <c r="R553" s="5"/>
-      <c r="S553" s="5"/>
-      <c r="T553" s="5"/>
-      <c r="U553" s="5" t="s">
+      <c r="O553" s="2"/>
+      <c r="P553" s="2"/>
+      <c r="Q553" s="2"/>
+      <c r="R553" s="2"/>
+      <c r="S553" s="2"/>
+      <c r="T553" s="2"/>
+      <c r="U553" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="V553" s="5" t="s">
+      <c r="V553" s="2" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -32212,44 +32110,42 @@
       <c r="V565" s="5"/>
     </row>
     <row r="566" spans="1:22">
-      <c r="A566" s="5" t="s">
+      <c r="A566" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="B566" s="5" t="s">
+      <c r="B566" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C566" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D566" s="5"/>
-      <c r="E566" s="5"/>
-      <c r="F566" s="5"/>
-      <c r="G566" s="5"/>
-      <c r="H566" s="5"/>
-      <c r="I566" s="5"/>
-      <c r="J566" s="5" t="s">
+      <c r="C566" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D566" s="2"/>
+      <c r="E566" s="2"/>
+      <c r="F566" s="2"/>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2"/>
+      <c r="J566" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K566" s="5"/>
-      <c r="L566" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M566" s="5" t="s">
+      <c r="K566" s="2"/>
+      <c r="L566" s="4"/>
+      <c r="M566" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N566" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O566" s="5"/>
-      <c r="P566" s="5"/>
-      <c r="Q566" s="5"/>
-      <c r="R566" s="5"/>
-      <c r="S566" s="5"/>
-      <c r="T566" s="5"/>
-      <c r="U566" s="5" t="s">
+      <c r="N566" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O566" s="2"/>
+      <c r="P566" s="2"/>
+      <c r="Q566" s="2"/>
+      <c r="R566" s="2"/>
+      <c r="S566" s="2"/>
+      <c r="T566" s="2"/>
+      <c r="U566" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V566" s="5"/>
+      <c r="V566" s="2"/>
     </row>
     <row r="567" spans="1:22">
       <c r="A567" s="5" t="s">
@@ -32611,9 +32507,7 @@
         <v>959</v>
       </c>
       <c r="K573" s="5"/>
-      <c r="L573" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L573" s="4"/>
       <c r="M573" s="5" t="s">
         <v>58</v>
       </c>
@@ -32667,9 +32561,7 @@
         <v>959</v>
       </c>
       <c r="K574" s="5"/>
-      <c r="L574" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L574" s="4"/>
       <c r="M574" s="5" t="s">
         <v>58</v>
       </c>
@@ -34152,44 +34044,42 @@
       <c r="V608" s="5"/>
     </row>
     <row r="609" spans="1:22">
-      <c r="A609" s="5" t="s">
+      <c r="A609" s="2" t="s">
         <v>1857</v>
       </c>
-      <c r="B609" s="5" t="s">
+      <c r="B609" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C609" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D609" s="5"/>
-      <c r="E609" s="5"/>
-      <c r="F609" s="5"/>
-      <c r="G609" s="5"/>
-      <c r="H609" s="5"/>
-      <c r="I609" s="5"/>
-      <c r="J609" s="5" t="s">
+      <c r="C609" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D609" s="2"/>
+      <c r="E609" s="2"/>
+      <c r="F609" s="2"/>
+      <c r="G609" s="2"/>
+      <c r="H609" s="2"/>
+      <c r="I609" s="2"/>
+      <c r="J609" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K609" s="5"/>
-      <c r="L609" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M609" s="5" t="s">
+      <c r="K609" s="2"/>
+      <c r="L609" s="4"/>
+      <c r="M609" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N609" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O609" s="5"/>
-      <c r="P609" s="5"/>
-      <c r="Q609" s="5"/>
-      <c r="R609" s="5"/>
-      <c r="S609" s="5"/>
-      <c r="T609" s="5"/>
-      <c r="U609" s="5" t="s">
+      <c r="N609" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O609" s="2"/>
+      <c r="P609" s="2"/>
+      <c r="Q609" s="2"/>
+      <c r="R609" s="2"/>
+      <c r="S609" s="2"/>
+      <c r="T609" s="2"/>
+      <c r="U609" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V609" s="5"/>
+      <c r="V609" s="2"/>
     </row>
     <row r="610" spans="1:22">
       <c r="A610" s="5" t="s">
@@ -43566,46 +43456,44 @@
       <c r="V834" s="5"/>
     </row>
     <row r="835" spans="1:22">
-      <c r="A835" s="5" t="s">
+      <c r="A835" s="2" t="s">
         <v>2081</v>
       </c>
-      <c r="B835" s="5" t="s">
+      <c r="B835" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C835" s="5" t="s">
+      <c r="C835" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D835" s="5"/>
-      <c r="E835" s="5"/>
-      <c r="F835" s="5"/>
-      <c r="G835" s="5"/>
-      <c r="H835" s="5"/>
-      <c r="I835" s="5"/>
-      <c r="J835" s="5" t="s">
+      <c r="D835" s="2"/>
+      <c r="E835" s="2"/>
+      <c r="F835" s="2"/>
+      <c r="G835" s="2"/>
+      <c r="H835" s="2"/>
+      <c r="I835" s="2"/>
+      <c r="J835" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="K835" s="5" t="s">
+      <c r="K835" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="L835" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M835" s="5" t="s">
+      <c r="L835" s="4"/>
+      <c r="M835" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="N835" s="5" t="s">
+      <c r="N835" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O835" s="5"/>
-      <c r="P835" s="5"/>
-      <c r="Q835" s="5"/>
-      <c r="R835" s="5"/>
-      <c r="S835" s="5"/>
-      <c r="T835" s="5"/>
-      <c r="U835" s="5" t="s">
+      <c r="O835" s="2"/>
+      <c r="P835" s="2"/>
+      <c r="Q835" s="2"/>
+      <c r="R835" s="2"/>
+      <c r="S835" s="2"/>
+      <c r="T835" s="2"/>
+      <c r="U835" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="V835" s="5" t="s">
+      <c r="V835" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -43859,9 +43747,7 @@
         <v>959</v>
       </c>
       <c r="K840" s="5"/>
-      <c r="L840" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L840" s="4"/>
       <c r="M840" s="5" t="s">
         <v>170</v>
       </c>
@@ -44307,9 +44193,7 @@
         <v>959</v>
       </c>
       <c r="K849" s="5"/>
-      <c r="L849" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L849" s="4"/>
       <c r="M849" s="5" t="s">
         <v>171</v>
       </c>
@@ -44690,44 +44574,42 @@
       <c r="V856" s="5"/>
     </row>
     <row r="857" spans="1:22">
-      <c r="A857" s="5" t="s">
+      <c r="A857" s="2" t="s">
         <v>2103</v>
       </c>
-      <c r="B857" s="5" t="s">
+      <c r="B857" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C857" s="5" t="s">
+      <c r="C857" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D857" s="5"/>
-      <c r="E857" s="5"/>
-      <c r="F857" s="5"/>
-      <c r="G857" s="5"/>
-      <c r="H857" s="5"/>
-      <c r="I857" s="5"/>
-      <c r="J857" s="5" t="s">
+      <c r="D857" s="2"/>
+      <c r="E857" s="2"/>
+      <c r="F857" s="2"/>
+      <c r="G857" s="2"/>
+      <c r="H857" s="2"/>
+      <c r="I857" s="2"/>
+      <c r="J857" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K857" s="5"/>
-      <c r="L857" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M857" s="5" t="s">
+      <c r="K857" s="2"/>
+      <c r="L857" s="4"/>
+      <c r="M857" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N857" s="5" t="s">
+      <c r="N857" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O857" s="5"/>
-      <c r="P857" s="5"/>
-      <c r="Q857" s="5"/>
-      <c r="R857" s="5"/>
-      <c r="S857" s="5"/>
-      <c r="T857" s="5"/>
-      <c r="U857" s="5" t="s">
+      <c r="O857" s="2"/>
+      <c r="P857" s="2"/>
+      <c r="Q857" s="2"/>
+      <c r="R857" s="2"/>
+      <c r="S857" s="2"/>
+      <c r="T857" s="2"/>
+      <c r="U857" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V857" s="5"/>
+      <c r="V857" s="2"/>
     </row>
     <row r="858" spans="1:22">
       <c r="A858" s="5" t="s">
@@ -44981,9 +44863,7 @@
         <v>959</v>
       </c>
       <c r="K862" s="5"/>
-      <c r="L862" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L862" s="4"/>
       <c r="M862" s="5" t="s">
         <v>172</v>
       </c>
@@ -46090,44 +45970,42 @@
       <c r="V888" s="9"/>
     </row>
     <row r="889" spans="1:22">
-      <c r="A889" s="5" t="s">
+      <c r="A889" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="B889" s="5" t="s">
+      <c r="B889" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C889" s="5" t="s">
+      <c r="C889" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D889" s="5"/>
-      <c r="E889" s="5"/>
-      <c r="F889" s="5"/>
-      <c r="G889" s="5"/>
-      <c r="H889" s="5"/>
-      <c r="I889" s="5"/>
-      <c r="J889" s="5" t="s">
+      <c r="D889" s="2"/>
+      <c r="E889" s="2"/>
+      <c r="F889" s="2"/>
+      <c r="G889" s="2"/>
+      <c r="H889" s="2"/>
+      <c r="I889" s="2"/>
+      <c r="J889" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K889" s="5"/>
-      <c r="L889" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M889" s="5" t="s">
+      <c r="K889" s="2"/>
+      <c r="L889" s="4"/>
+      <c r="M889" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N889" s="5" t="s">
+      <c r="N889" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O889" s="5"/>
-      <c r="P889" s="5"/>
-      <c r="Q889" s="5"/>
-      <c r="R889" s="5"/>
-      <c r="S889" s="5"/>
-      <c r="T889" s="5"/>
-      <c r="U889" s="5" t="s">
+      <c r="O889" s="2"/>
+      <c r="P889" s="2"/>
+      <c r="Q889" s="2"/>
+      <c r="R889" s="2"/>
+      <c r="S889" s="2"/>
+      <c r="T889" s="2"/>
+      <c r="U889" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V889" s="5"/>
+      <c r="V889" s="2"/>
     </row>
     <row r="890" spans="1:22">
       <c r="A890" s="5" t="s">
@@ -46381,9 +46259,7 @@
         <v>959</v>
       </c>
       <c r="K894" s="5"/>
-      <c r="L894" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L894" s="4"/>
       <c r="M894" s="5" t="s">
         <v>174</v>
       </c>
@@ -46638,44 +46514,42 @@
       <c r="V898" s="5"/>
     </row>
     <row r="899" spans="1:22">
-      <c r="A899" s="5" t="s">
+      <c r="A899" s="2" t="s">
         <v>2145</v>
       </c>
-      <c r="B899" s="5" t="s">
+      <c r="B899" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C899" s="5" t="s">
+      <c r="C899" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D899" s="5"/>
-      <c r="E899" s="5"/>
-      <c r="F899" s="5"/>
-      <c r="G899" s="5"/>
-      <c r="H899" s="5"/>
-      <c r="I899" s="5"/>
-      <c r="J899" s="5" t="s">
+      <c r="D899" s="2"/>
+      <c r="E899" s="2"/>
+      <c r="F899" s="2"/>
+      <c r="G899" s="2"/>
+      <c r="H899" s="2"/>
+      <c r="I899" s="2"/>
+      <c r="J899" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K899" s="5"/>
-      <c r="L899" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M899" s="5" t="s">
+      <c r="K899" s="2"/>
+      <c r="L899" s="4"/>
+      <c r="M899" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="N899" s="5" t="s">
+      <c r="N899" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O899" s="5"/>
-      <c r="P899" s="5"/>
-      <c r="Q899" s="5"/>
-      <c r="R899" s="5"/>
-      <c r="S899" s="5"/>
-      <c r="T899" s="5"/>
-      <c r="U899" s="5" t="s">
+      <c r="O899" s="2"/>
+      <c r="P899" s="2"/>
+      <c r="Q899" s="2"/>
+      <c r="R899" s="2"/>
+      <c r="S899" s="2"/>
+      <c r="T899" s="2"/>
+      <c r="U899" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V899" s="5"/>
+      <c r="V899" s="2"/>
     </row>
     <row r="900" spans="1:22">
       <c r="A900" s="5" t="s">
@@ -46929,9 +46803,7 @@
         <v>959</v>
       </c>
       <c r="K904" s="5"/>
-      <c r="L904" s="7" t="s">
-        <v>1196</v>
-      </c>
+      <c r="L904" s="4"/>
       <c r="M904" s="5" t="s">
         <v>175</v>
       </c>
@@ -47186,44 +47058,42 @@
       <c r="V908" s="5"/>
     </row>
     <row r="909" spans="1:22">
-      <c r="A909" s="5" t="s">
+      <c r="A909" s="2" t="s">
         <v>2155</v>
       </c>
-      <c r="B909" s="5" t="s">
+      <c r="B909" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C909" s="5" t="s">
+      <c r="C909" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D909" s="5"/>
-      <c r="E909" s="5"/>
-      <c r="F909" s="5"/>
-      <c r="G909" s="5"/>
-      <c r="H909" s="5"/>
-      <c r="I909" s="5"/>
-      <c r="J909" s="5" t="s">
+      <c r="D909" s="2"/>
+      <c r="E909" s="2"/>
+      <c r="F909" s="2"/>
+      <c r="G909" s="2"/>
+      <c r="H909" s="2"/>
+      <c r="I909" s="2"/>
+      <c r="J909" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="K909" s="5"/>
-      <c r="L909" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M909" s="5" t="s">
+      <c r="K909" s="2"/>
+      <c r="L909" s="4"/>
+      <c r="M909" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="N909" s="5" t="s">
+      <c r="N909" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="O909" s="5"/>
-      <c r="P909" s="5"/>
-      <c r="Q909" s="5"/>
-      <c r="R909" s="5"/>
-      <c r="S909" s="5"/>
-      <c r="T909" s="5"/>
-      <c r="U909" s="5" t="s">
+      <c r="O909" s="2"/>
+      <c r="P909" s="2"/>
+      <c r="Q909" s="2"/>
+      <c r="R909" s="2"/>
+      <c r="S909" s="2"/>
+      <c r="T909" s="2"/>
+      <c r="U909" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="V909" s="5"/>
+      <c r="V909" s="2"/>
     </row>
     <row r="910" spans="1:22">
       <c r="A910" s="5" t="s">
